--- a/Historical Interest Rate Data/Historical Interest Rate Data - 1990 - 2022.xlsx
+++ b/Historical Interest Rate Data/Historical Interest Rate Data - 1990 - 2022.xlsx
@@ -5,20 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nino\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjtur\LearnPython\UWA_Bootcamp_DA\04-GitHub Repositories\project-1\Historical Interest Rate Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1D1A05-0A33-4259-8523-B385489B3EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FF468E-7048-45FD-B491-FD2F6B806BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B701FA85-4DAD-4331-8607-0404BEBE9D16}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15360" activeTab="1" xr2:uid="{B701FA85-4DAD-4331-8607-0404BEBE9D16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$B$362</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2168,7 +2171,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D87D4169-4906-4FE6-B221-7FBA98C9A553}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D87D4169-4906-4FE6-B221-7FBA98C9A553}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" numFmtId="15" showAll="0">
@@ -3099,13 +3102,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556AA299-82DA-4E8F-A498-0A31FD584209}">
   <dimension ref="A1:B362"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3119,1423 +3120,1423 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44657</v>
+        <v>32896</v>
       </c>
       <c r="B2">
-        <v>0.1</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44622</v>
+        <v>32919</v>
       </c>
       <c r="B3">
-        <v>0.1</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>44594</v>
+        <v>32939</v>
       </c>
       <c r="B4">
-        <v>0.1</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>44538</v>
+        <v>32967</v>
       </c>
       <c r="B5">
-        <v>0.1</v>
+        <v>15.25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>44503</v>
+        <v>32995</v>
       </c>
       <c r="B6">
-        <v>0.1</v>
+        <v>15.25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>44475</v>
+        <v>33030</v>
       </c>
       <c r="B7">
-        <v>0.1</v>
+        <v>15.25</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>44447</v>
+        <v>33058</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>15.25</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>44412</v>
+        <v>33087</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>44384</v>
+        <v>33121</v>
       </c>
       <c r="B10">
-        <v>0.1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>44349</v>
+        <v>33161</v>
       </c>
       <c r="B11">
-        <v>0.1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>44321</v>
+        <v>33184</v>
       </c>
       <c r="B12">
-        <v>0.1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>44293</v>
+        <v>33225</v>
       </c>
       <c r="B13">
-        <v>0.1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>44258</v>
+        <v>33275</v>
       </c>
       <c r="B14">
-        <v>0.1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>44230</v>
+        <v>33303</v>
       </c>
       <c r="B15">
-        <v>0.1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>44167</v>
+        <v>33332</v>
       </c>
       <c r="B16">
-        <v>0.1</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>44139</v>
+        <v>33374</v>
       </c>
       <c r="B17">
-        <v>0.1</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>44111</v>
+        <v>33403</v>
       </c>
       <c r="B18">
-        <v>0.25</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>44076</v>
+        <v>33422</v>
       </c>
       <c r="B19">
-        <v>0.25</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>44048</v>
+        <v>33450</v>
       </c>
       <c r="B20">
-        <v>0.25</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>44020</v>
+        <v>33484</v>
       </c>
       <c r="B21">
-        <v>0.25</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>43985</v>
+        <v>33513</v>
       </c>
       <c r="B22">
-        <v>0.25</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>43957</v>
+        <v>33548</v>
       </c>
       <c r="B23">
-        <v>0.25</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>43929</v>
+        <v>33576</v>
       </c>
       <c r="B24">
-        <v>0.25</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>43910</v>
+        <v>33611</v>
       </c>
       <c r="B25">
-        <v>0.25</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>43894</v>
+        <v>33639</v>
       </c>
       <c r="B26">
-        <v>0.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>43866</v>
+        <v>33667</v>
       </c>
       <c r="B27">
-        <v>0.75</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>43803</v>
+        <v>33702</v>
       </c>
       <c r="B28">
-        <v>0.75</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>43775</v>
+        <v>33730</v>
       </c>
       <c r="B29">
-        <v>0.75</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>43740</v>
+        <v>33758</v>
       </c>
       <c r="B30">
-        <v>0.75</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>43712</v>
+        <v>33793</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>43684</v>
+        <v>33814</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>43649</v>
+        <v>33849</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>43621</v>
+        <v>33884</v>
       </c>
       <c r="B34">
-        <v>1.25</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>43593</v>
+        <v>33912</v>
       </c>
       <c r="B35">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>43558</v>
+        <v>33940</v>
       </c>
       <c r="B36">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>43530</v>
+        <v>34003</v>
       </c>
       <c r="B37">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>43502</v>
+        <v>34051</v>
       </c>
       <c r="B38">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>43439</v>
+        <v>34066</v>
       </c>
       <c r="B39">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>43411</v>
+        <v>34094</v>
       </c>
       <c r="B40">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>43376</v>
+        <v>34122</v>
       </c>
       <c r="B41">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>43348</v>
+        <v>34157</v>
       </c>
       <c r="B42">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>43320</v>
+        <v>34180</v>
       </c>
       <c r="B43">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>43285</v>
+        <v>34220</v>
       </c>
       <c r="B44">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>43257</v>
+        <v>34248</v>
       </c>
       <c r="B45">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>43222</v>
+        <v>34276</v>
       </c>
       <c r="B46">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>43194</v>
+        <v>34311</v>
       </c>
       <c r="B47">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>43166</v>
+        <v>34367</v>
       </c>
       <c r="B48">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>43138</v>
+        <v>34395</v>
       </c>
       <c r="B49">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>43075</v>
+        <v>34423</v>
       </c>
       <c r="B50">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>43047</v>
+        <v>34458</v>
       </c>
       <c r="B51">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>43012</v>
+        <v>34493</v>
       </c>
       <c r="B52">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>42984</v>
+        <v>34521</v>
       </c>
       <c r="B53">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>42949</v>
+        <v>34542</v>
       </c>
       <c r="B54">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>42921</v>
+        <v>34563</v>
       </c>
       <c r="B55">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>42893</v>
+        <v>34584</v>
       </c>
       <c r="B56">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>42858</v>
+        <v>34631</v>
       </c>
       <c r="B57">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>42830</v>
+        <v>34640</v>
       </c>
       <c r="B58">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>42802</v>
+        <v>34682</v>
       </c>
       <c r="B59">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>42774</v>
+        <v>34738</v>
       </c>
       <c r="B60">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>42711</v>
+        <v>34766</v>
       </c>
       <c r="B61">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>42676</v>
+        <v>34794</v>
       </c>
       <c r="B62">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>42648</v>
+        <v>34822</v>
       </c>
       <c r="B63">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>42620</v>
+        <v>34857</v>
       </c>
       <c r="B64">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>42585</v>
+        <v>34885</v>
       </c>
       <c r="B65">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>42557</v>
+        <v>34906</v>
       </c>
       <c r="B66">
-        <v>1.75</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>42529</v>
+        <v>34948</v>
       </c>
       <c r="B67">
-        <v>1.75</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>42494</v>
+        <v>34976</v>
       </c>
       <c r="B68">
-        <v>1.75</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>42466</v>
+        <v>35011</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>42431</v>
+        <v>35039</v>
       </c>
       <c r="B70">
-        <v>2</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>42403</v>
+        <v>35102</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>42340</v>
+        <v>35130</v>
       </c>
       <c r="B72">
-        <v>2</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>42312</v>
+        <v>35158</v>
       </c>
       <c r="B73">
-        <v>2</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>42284</v>
+        <v>35193</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>42249</v>
+        <v>35221</v>
       </c>
       <c r="B75">
-        <v>2</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>42221</v>
+        <v>35249</v>
       </c>
       <c r="B76">
-        <v>2</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>42193</v>
+        <v>35277</v>
       </c>
       <c r="B77">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>42158</v>
+        <v>35312</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>42130</v>
+        <v>35340</v>
       </c>
       <c r="B79">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>42102</v>
+        <v>35375</v>
       </c>
       <c r="B80">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>42067</v>
+        <v>35410</v>
       </c>
       <c r="B81">
-        <v>2.25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>42039</v>
+        <v>35466</v>
       </c>
       <c r="B82">
-        <v>2.25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>41976</v>
+        <v>35494</v>
       </c>
       <c r="B83">
-        <v>2.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41948</v>
+        <v>35522</v>
       </c>
       <c r="B84">
-        <v>2.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>41920</v>
+        <v>35557</v>
       </c>
       <c r="B85">
-        <v>2.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>41885</v>
+        <v>35573</v>
       </c>
       <c r="B86">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>41857</v>
+        <v>35585</v>
       </c>
       <c r="B87">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>41822</v>
+        <v>35613</v>
       </c>
       <c r="B88">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>41794</v>
+        <v>35641</v>
       </c>
       <c r="B89">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>41766</v>
+        <v>35648</v>
       </c>
       <c r="B90">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>41731</v>
+        <v>35676</v>
       </c>
       <c r="B91">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>41703</v>
+        <v>35711</v>
       </c>
       <c r="B92">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>41675</v>
+        <v>35739</v>
       </c>
       <c r="B93">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>41612</v>
+        <v>35767</v>
       </c>
       <c r="B94">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>41584</v>
+        <v>35830</v>
       </c>
       <c r="B95">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>41549</v>
+        <v>35858</v>
       </c>
       <c r="B96">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>41521</v>
+        <v>35893</v>
       </c>
       <c r="B97">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>41493</v>
+        <v>35921</v>
       </c>
       <c r="B98">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>41458</v>
+        <v>35949</v>
       </c>
       <c r="B99">
-        <v>2.75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>41430</v>
+        <v>35984</v>
       </c>
       <c r="B100">
-        <v>2.75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>41402</v>
+        <v>36012</v>
       </c>
       <c r="B101">
-        <v>2.75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>41367</v>
+        <v>36040</v>
       </c>
       <c r="B102">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>41339</v>
+        <v>36075</v>
       </c>
       <c r="B103">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>41311</v>
+        <v>36103</v>
       </c>
       <c r="B104">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>41248</v>
+        <v>36131</v>
       </c>
       <c r="B105">
-        <v>3</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>41220</v>
+        <v>36194</v>
       </c>
       <c r="B106">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>41185</v>
+        <v>36222</v>
       </c>
       <c r="B107">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>41157</v>
+        <v>36257</v>
       </c>
       <c r="B108">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>41129</v>
+        <v>36285</v>
       </c>
       <c r="B109">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>41094</v>
+        <v>36313</v>
       </c>
       <c r="B110">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>41066</v>
+        <v>36348</v>
       </c>
       <c r="B111">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>41031</v>
+        <v>36376</v>
       </c>
       <c r="B112">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>41003</v>
+        <v>36411</v>
       </c>
       <c r="B113">
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>40975</v>
+        <v>36439</v>
       </c>
       <c r="B114">
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>40947</v>
+        <v>36467</v>
       </c>
       <c r="B115">
-        <v>4.25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>40884</v>
+        <v>36502</v>
       </c>
       <c r="B116">
-        <v>4.25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>40849</v>
+        <v>36558</v>
       </c>
       <c r="B117">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>40821</v>
+        <v>36593</v>
       </c>
       <c r="B118">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>40793</v>
+        <v>36621</v>
       </c>
       <c r="B119">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>40758</v>
+        <v>36649</v>
       </c>
       <c r="B120">
-        <v>4.75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>40730</v>
+        <v>36684</v>
       </c>
       <c r="B121">
-        <v>4.75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>40702</v>
+        <v>36712</v>
       </c>
       <c r="B122">
-        <v>4.75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>40667</v>
+        <v>36740</v>
       </c>
       <c r="B123">
-        <v>4.75</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>40639</v>
+        <v>36775</v>
       </c>
       <c r="B124">
-        <v>4.75</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>40604</v>
+        <v>36803</v>
       </c>
       <c r="B125">
-        <v>4.75</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>40576</v>
+        <v>36838</v>
       </c>
       <c r="B126">
-        <v>4.75</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>40520</v>
+        <v>36866</v>
       </c>
       <c r="B127">
-        <v>4.75</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>40485</v>
+        <v>36929</v>
       </c>
       <c r="B128">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>40457</v>
+        <v>36957</v>
       </c>
       <c r="B129">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>40429</v>
+        <v>36985</v>
       </c>
       <c r="B130">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>40394</v>
+        <v>37013</v>
       </c>
       <c r="B131">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>40366</v>
+        <v>37048</v>
       </c>
       <c r="B132">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>40331</v>
+        <v>37076</v>
       </c>
       <c r="B133">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>40303</v>
+        <v>37111</v>
       </c>
       <c r="B134">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>40275</v>
+        <v>37139</v>
       </c>
       <c r="B135">
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>40240</v>
+        <v>37167</v>
       </c>
       <c r="B136">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>40212</v>
+        <v>37202</v>
       </c>
       <c r="B137">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>40149</v>
+        <v>37230</v>
       </c>
       <c r="B138">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>40121</v>
+        <v>37293</v>
       </c>
       <c r="B139">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>40093</v>
+        <v>37321</v>
       </c>
       <c r="B140">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>40058</v>
+        <v>37349</v>
       </c>
       <c r="B141">
-        <v>3</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>40030</v>
+        <v>37384</v>
       </c>
       <c r="B142">
-        <v>3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>40002</v>
+        <v>37412</v>
       </c>
       <c r="B143">
-        <v>3</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>39967</v>
+        <v>37440</v>
       </c>
       <c r="B144">
-        <v>3</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>39939</v>
+        <v>37475</v>
       </c>
       <c r="B145">
-        <v>3</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>39911</v>
+        <v>37503</v>
       </c>
       <c r="B146">
-        <v>3</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>39876</v>
+        <v>37531</v>
       </c>
       <c r="B147">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>39848</v>
+        <v>37566</v>
       </c>
       <c r="B148">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>39785</v>
+        <v>37594</v>
       </c>
       <c r="B149">
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>39757</v>
+        <v>37657</v>
       </c>
       <c r="B150">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>39729</v>
+        <v>37685</v>
       </c>
       <c r="B151">
-        <v>6</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>39694</v>
+        <v>37713</v>
       </c>
       <c r="B152">
-        <v>7</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>39666</v>
+        <v>37748</v>
       </c>
       <c r="B153">
-        <v>7.25</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>39631</v>
+        <v>37776</v>
       </c>
       <c r="B154">
-        <v>7.25</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>39603</v>
+        <v>37804</v>
       </c>
       <c r="B155">
-        <v>7.25</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>39575</v>
+        <v>37839</v>
       </c>
       <c r="B156">
-        <v>7.25</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>39540</v>
+        <v>37867</v>
       </c>
       <c r="B157">
-        <v>7.25</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>39512</v>
+        <v>37902</v>
       </c>
       <c r="B158">
-        <v>7.25</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>39484</v>
+        <v>37930</v>
       </c>
       <c r="B159">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>39421</v>
+        <v>37958</v>
       </c>
       <c r="B160">
-        <v>6.75</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>39393</v>
+        <v>38021</v>
       </c>
       <c r="B161">
-        <v>6.75</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>39358</v>
+        <v>38049</v>
       </c>
       <c r="B162">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>39330</v>
+        <v>38084</v>
       </c>
       <c r="B163">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>39302</v>
+        <v>38112</v>
       </c>
       <c r="B164">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>39267</v>
+        <v>38140</v>
       </c>
       <c r="B165">
-        <v>6.25</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>39239</v>
+        <v>38175</v>
       </c>
       <c r="B166">
-        <v>6.25</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>39204</v>
+        <v>38203</v>
       </c>
       <c r="B167">
-        <v>6.25</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>39176</v>
+        <v>38238</v>
       </c>
       <c r="B168">
-        <v>6.25</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>39148</v>
+        <v>38266</v>
       </c>
       <c r="B169">
-        <v>6.25</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>39120</v>
+        <v>38294</v>
       </c>
       <c r="B170">
-        <v>6.25</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>39057</v>
+        <v>38329</v>
       </c>
       <c r="B171">
-        <v>6.25</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>39029</v>
+        <v>38385</v>
       </c>
       <c r="B172">
-        <v>6.25</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>38994</v>
+        <v>38413</v>
       </c>
       <c r="B173">
-        <v>6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>38966</v>
+        <v>38448</v>
       </c>
       <c r="B174">
-        <v>6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>38931</v>
+        <v>38476</v>
       </c>
       <c r="B175">
-        <v>6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>38903</v>
+        <v>38511</v>
       </c>
       <c r="B176">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>38875</v>
+        <v>38539</v>
       </c>
       <c r="B177">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>38840</v>
+        <v>38567</v>
       </c>
       <c r="B178">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>38812</v>
+        <v>38602</v>
       </c>
       <c r="B179">
         <v>5.5</v>
@@ -4543,7 +4544,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>38784</v>
+        <v>38630</v>
       </c>
       <c r="B180">
         <v>5.5</v>
@@ -4551,7 +4552,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>38756</v>
+        <v>38658</v>
       </c>
       <c r="B181">
         <v>5.5</v>
@@ -4567,7 +4568,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>38658</v>
+        <v>38756</v>
       </c>
       <c r="B183">
         <v>5.5</v>
@@ -4575,7 +4576,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>38630</v>
+        <v>38784</v>
       </c>
       <c r="B184">
         <v>5.5</v>
@@ -4583,7 +4584,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>38602</v>
+        <v>38812</v>
       </c>
       <c r="B185">
         <v>5.5</v>
@@ -4591,1421 +4592,1426 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>38567</v>
+        <v>38840</v>
       </c>
       <c r="B186">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>38539</v>
+        <v>38875</v>
       </c>
       <c r="B187">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>38511</v>
+        <v>38903</v>
       </c>
       <c r="B188">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>38476</v>
+        <v>38931</v>
       </c>
       <c r="B189">
-        <v>5.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>38448</v>
+        <v>38966</v>
       </c>
       <c r="B190">
-        <v>5.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>38413</v>
+        <v>38994</v>
       </c>
       <c r="B191">
-        <v>5.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>38385</v>
+        <v>39029</v>
       </c>
       <c r="B192">
-        <v>5.25</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>38329</v>
+        <v>39057</v>
       </c>
       <c r="B193">
-        <v>5.25</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>38294</v>
+        <v>39120</v>
       </c>
       <c r="B194">
-        <v>5.25</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>38266</v>
+        <v>39148</v>
       </c>
       <c r="B195">
-        <v>5.25</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>38238</v>
+        <v>39176</v>
       </c>
       <c r="B196">
-        <v>5.25</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>38203</v>
+        <v>39204</v>
       </c>
       <c r="B197">
-        <v>5.25</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>38175</v>
+        <v>39239</v>
       </c>
       <c r="B198">
-        <v>5.25</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>38140</v>
+        <v>39267</v>
       </c>
       <c r="B199">
-        <v>5.25</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>38112</v>
+        <v>39302</v>
       </c>
       <c r="B200">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>38084</v>
+        <v>39330</v>
       </c>
       <c r="B201">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>38049</v>
+        <v>39358</v>
       </c>
       <c r="B202">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>38021</v>
+        <v>39393</v>
       </c>
       <c r="B203">
-        <v>5.25</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>37958</v>
+        <v>39421</v>
       </c>
       <c r="B204">
-        <v>5.25</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>37930</v>
+        <v>39484</v>
       </c>
       <c r="B205">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>37902</v>
+        <v>39512</v>
       </c>
       <c r="B206">
-        <v>4.75</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>37867</v>
+        <v>39540</v>
       </c>
       <c r="B207">
-        <v>4.75</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>37839</v>
+        <v>39575</v>
       </c>
       <c r="B208">
-        <v>4.75</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>37804</v>
+        <v>39603</v>
       </c>
       <c r="B209">
-        <v>4.75</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>37776</v>
+        <v>39631</v>
       </c>
       <c r="B210">
-        <v>4.75</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>37748</v>
+        <v>39666</v>
       </c>
       <c r="B211">
-        <v>4.75</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>37713</v>
+        <v>39694</v>
       </c>
       <c r="B212">
-        <v>4.75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>37685</v>
+        <v>39729</v>
       </c>
       <c r="B213">
-        <v>4.75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>37657</v>
+        <v>39757</v>
       </c>
       <c r="B214">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>37594</v>
+        <v>39785</v>
       </c>
       <c r="B215">
-        <v>4.75</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>37566</v>
+        <v>39848</v>
       </c>
       <c r="B216">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>37531</v>
+        <v>39876</v>
       </c>
       <c r="B217">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>37503</v>
+        <v>39911</v>
       </c>
       <c r="B218">
-        <v>4.75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>37475</v>
+        <v>39939</v>
       </c>
       <c r="B219">
-        <v>4.75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>37440</v>
+        <v>39967</v>
       </c>
       <c r="B220">
-        <v>4.75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>37412</v>
+        <v>40002</v>
       </c>
       <c r="B221">
-        <v>4.75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>37384</v>
+        <v>40030</v>
       </c>
       <c r="B222">
-        <v>4.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>37349</v>
+        <v>40058</v>
       </c>
       <c r="B223">
-        <v>4.25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>37321</v>
+        <v>40093</v>
       </c>
       <c r="B224">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>37293</v>
+        <v>40121</v>
       </c>
       <c r="B225">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>37230</v>
+        <v>40149</v>
       </c>
       <c r="B226">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>37202</v>
+        <v>40212</v>
       </c>
       <c r="B227">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>37167</v>
+        <v>40240</v>
       </c>
       <c r="B228">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>37139</v>
+        <v>40275</v>
       </c>
       <c r="B229">
-        <v>4.75</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>37111</v>
+        <v>40303</v>
       </c>
       <c r="B230">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>37076</v>
+        <v>40331</v>
       </c>
       <c r="B231">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>37048</v>
+        <v>40366</v>
       </c>
       <c r="B232">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>37013</v>
+        <v>40394</v>
       </c>
       <c r="B233">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>36985</v>
+        <v>40429</v>
       </c>
       <c r="B234">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>36957</v>
+        <v>40457</v>
       </c>
       <c r="B235">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>36929</v>
+        <v>40485</v>
       </c>
       <c r="B236">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>36866</v>
+        <v>40520</v>
       </c>
       <c r="B237">
-        <v>6.25</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>36838</v>
+        <v>40576</v>
       </c>
       <c r="B238">
-        <v>6.25</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>36803</v>
+        <v>40604</v>
       </c>
       <c r="B239">
-        <v>6.25</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>36775</v>
+        <v>40639</v>
       </c>
       <c r="B240">
-        <v>6.25</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>36740</v>
+        <v>40667</v>
       </c>
       <c r="B241">
-        <v>6.25</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>36712</v>
+        <v>40702</v>
       </c>
       <c r="B242">
-        <v>6</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>36684</v>
+        <v>40730</v>
       </c>
       <c r="B243">
-        <v>6</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>36649</v>
+        <v>40758</v>
       </c>
       <c r="B244">
-        <v>6</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>36621</v>
+        <v>40793</v>
       </c>
       <c r="B245">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>36593</v>
+        <v>40821</v>
       </c>
       <c r="B246">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>36558</v>
+        <v>40849</v>
       </c>
       <c r="B247">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>36502</v>
+        <v>40884</v>
       </c>
       <c r="B248">
-        <v>5</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>36467</v>
+        <v>40947</v>
       </c>
       <c r="B249">
-        <v>5</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>36439</v>
+        <v>40975</v>
       </c>
       <c r="B250">
-        <v>4.75</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>36411</v>
+        <v>41003</v>
       </c>
       <c r="B251">
-        <v>4.75</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>36376</v>
+        <v>41031</v>
       </c>
       <c r="B252">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>36348</v>
+        <v>41066</v>
       </c>
       <c r="B253">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>36313</v>
+        <v>41094</v>
       </c>
       <c r="B254">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>36285</v>
+        <v>41129</v>
       </c>
       <c r="B255">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>36257</v>
+        <v>41157</v>
       </c>
       <c r="B256">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>36222</v>
+        <v>41185</v>
       </c>
       <c r="B257">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>36194</v>
+        <v>41220</v>
       </c>
       <c r="B258">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>36131</v>
+        <v>41248</v>
       </c>
       <c r="B259">
-        <v>4.75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>36103</v>
+        <v>41311</v>
       </c>
       <c r="B260">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>36075</v>
+        <v>41339</v>
       </c>
       <c r="B261">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>36040</v>
+        <v>41367</v>
       </c>
       <c r="B262">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>36012</v>
+        <v>41402</v>
       </c>
       <c r="B263">
-        <v>5</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>35984</v>
+        <v>41430</v>
       </c>
       <c r="B264">
-        <v>5</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>35949</v>
+        <v>41458</v>
       </c>
       <c r="B265">
-        <v>5</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>35921</v>
+        <v>41493</v>
       </c>
       <c r="B266">
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>35893</v>
+        <v>41521</v>
       </c>
       <c r="B267">
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>35858</v>
+        <v>41549</v>
       </c>
       <c r="B268">
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>35830</v>
+        <v>41584</v>
       </c>
       <c r="B269">
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>35767</v>
+        <v>41612</v>
       </c>
       <c r="B270">
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
-        <v>35739</v>
+        <v>41675</v>
       </c>
       <c r="B271">
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
-        <v>35711</v>
+        <v>41703</v>
       </c>
       <c r="B272">
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
-        <v>35676</v>
+        <v>41731</v>
       </c>
       <c r="B273">
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <v>35648</v>
+        <v>41766</v>
       </c>
       <c r="B274">
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>35641</v>
+        <v>41794</v>
       </c>
       <c r="B275">
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>35613</v>
+        <v>41822</v>
       </c>
       <c r="B276">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>35585</v>
+        <v>41857</v>
       </c>
       <c r="B277">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
-        <v>35573</v>
+        <v>41885</v>
       </c>
       <c r="B278">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>35557</v>
+        <v>41920</v>
       </c>
       <c r="B279">
-        <v>6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>35522</v>
+        <v>41948</v>
       </c>
       <c r="B280">
-        <v>6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>35494</v>
+        <v>41976</v>
       </c>
       <c r="B281">
-        <v>6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>35466</v>
+        <v>42039</v>
       </c>
       <c r="B282">
-        <v>6</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>35410</v>
+        <v>42067</v>
       </c>
       <c r="B283">
-        <v>6</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>35375</v>
+        <v>42102</v>
       </c>
       <c r="B284">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
-        <v>35340</v>
+        <v>42130</v>
       </c>
       <c r="B285">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>35312</v>
+        <v>42158</v>
       </c>
       <c r="B286">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
-        <v>35277</v>
+        <v>42193</v>
       </c>
       <c r="B287">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
-        <v>35249</v>
+        <v>42221</v>
       </c>
       <c r="B288">
-        <v>7.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
-        <v>35221</v>
+        <v>42249</v>
       </c>
       <c r="B289">
-        <v>7.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
-        <v>35193</v>
+        <v>42284</v>
       </c>
       <c r="B290">
-        <v>7.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
-        <v>35158</v>
+        <v>42312</v>
       </c>
       <c r="B291">
-        <v>7.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
-        <v>35130</v>
+        <v>42340</v>
       </c>
       <c r="B292">
-        <v>7.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
-        <v>35102</v>
+        <v>42403</v>
       </c>
       <c r="B293">
-        <v>7.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
-        <v>35039</v>
+        <v>42431</v>
       </c>
       <c r="B294">
-        <v>7.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
-        <v>35011</v>
+        <v>42466</v>
       </c>
       <c r="B295">
-        <v>7.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
-        <v>34976</v>
+        <v>42494</v>
       </c>
       <c r="B296">
-        <v>7.5</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
-        <v>34948</v>
+        <v>42529</v>
       </c>
       <c r="B297">
-        <v>7.5</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
-        <v>34906</v>
+        <v>42557</v>
       </c>
       <c r="B298">
-        <v>7.5</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
-        <v>34885</v>
+        <v>42585</v>
       </c>
       <c r="B299">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
-        <v>34857</v>
+        <v>42620</v>
       </c>
       <c r="B300">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
-        <v>34822</v>
+        <v>42648</v>
       </c>
       <c r="B301">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
-        <v>34794</v>
+        <v>42676</v>
       </c>
       <c r="B302">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
-        <v>34766</v>
+        <v>42711</v>
       </c>
       <c r="B303">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
-        <v>34738</v>
+        <v>42774</v>
       </c>
       <c r="B304">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
-        <v>34682</v>
+        <v>42802</v>
       </c>
       <c r="B305">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
-        <v>34640</v>
+        <v>42830</v>
       </c>
       <c r="B306">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
-        <v>34631</v>
+        <v>42858</v>
       </c>
       <c r="B307">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
-        <v>34584</v>
+        <v>42893</v>
       </c>
       <c r="B308">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
-        <v>34563</v>
+        <v>42921</v>
       </c>
       <c r="B309">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
-        <v>34542</v>
+        <v>42949</v>
       </c>
       <c r="B310">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
-        <v>34521</v>
+        <v>42984</v>
       </c>
       <c r="B311">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
-        <v>34493</v>
+        <v>43012</v>
       </c>
       <c r="B312">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
-        <v>34458</v>
+        <v>43047</v>
       </c>
       <c r="B313">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
-        <v>34423</v>
+        <v>43075</v>
       </c>
       <c r="B314">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
-        <v>34395</v>
+        <v>43138</v>
       </c>
       <c r="B315">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
-        <v>34367</v>
+        <v>43166</v>
       </c>
       <c r="B316">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
-        <v>34311</v>
+        <v>43194</v>
       </c>
       <c r="B317">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
-        <v>34276</v>
+        <v>43222</v>
       </c>
       <c r="B318">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
-        <v>34248</v>
+        <v>43257</v>
       </c>
       <c r="B319">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
-        <v>34220</v>
+        <v>43285</v>
       </c>
       <c r="B320">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
-        <v>34180</v>
+        <v>43320</v>
       </c>
       <c r="B321">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
-        <v>34157</v>
+        <v>43348</v>
       </c>
       <c r="B322">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
-        <v>34122</v>
+        <v>43376</v>
       </c>
       <c r="B323">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
-        <v>34094</v>
+        <v>43411</v>
       </c>
       <c r="B324">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
-        <v>34066</v>
+        <v>43439</v>
       </c>
       <c r="B325">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
-        <v>34051</v>
+        <v>43502</v>
       </c>
       <c r="B326">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
-        <v>34003</v>
+        <v>43530</v>
       </c>
       <c r="B327">
-        <v>5.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
-        <v>33940</v>
+        <v>43558</v>
       </c>
       <c r="B328">
-        <v>5.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
-        <v>33912</v>
+        <v>43593</v>
       </c>
       <c r="B329">
-        <v>5.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
-        <v>33884</v>
+        <v>43621</v>
       </c>
       <c r="B330">
-        <v>5.75</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
-        <v>33849</v>
+        <v>43649</v>
       </c>
       <c r="B331">
-        <v>5.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
-        <v>33814</v>
+        <v>43684</v>
       </c>
       <c r="B332">
-        <v>5.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
-        <v>33793</v>
+        <v>43712</v>
       </c>
       <c r="B333">
-        <v>5.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
-        <v>33758</v>
+        <v>43740</v>
       </c>
       <c r="B334">
-        <v>6.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
-        <v>33730</v>
+        <v>43775</v>
       </c>
       <c r="B335">
-        <v>6.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
-        <v>33702</v>
+        <v>43803</v>
       </c>
       <c r="B336">
-        <v>7.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
-        <v>33667</v>
+        <v>43866</v>
       </c>
       <c r="B337">
-        <v>7.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
-        <v>33639</v>
+        <v>43894</v>
       </c>
       <c r="B338">
-        <v>7.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
-        <v>33611</v>
+        <v>43910</v>
       </c>
       <c r="B339">
-        <v>7.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
-        <v>33576</v>
+        <v>43929</v>
       </c>
       <c r="B340">
-        <v>8.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
-        <v>33548</v>
+        <v>43957</v>
       </c>
       <c r="B341">
-        <v>8.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
-        <v>33513</v>
+        <v>43985</v>
       </c>
       <c r="B342">
-        <v>9.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
-        <v>33484</v>
+        <v>44020</v>
       </c>
       <c r="B343">
-        <v>9.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
-        <v>33450</v>
+        <v>44048</v>
       </c>
       <c r="B344">
-        <v>10.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
-        <v>33422</v>
+        <v>44076</v>
       </c>
       <c r="B345">
-        <v>10.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
-        <v>33403</v>
+        <v>44111</v>
       </c>
       <c r="B346">
-        <v>10.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
-        <v>33374</v>
+        <v>44139</v>
       </c>
       <c r="B347">
-        <v>10.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
-        <v>33332</v>
+        <v>44167</v>
       </c>
       <c r="B348">
-        <v>11.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
-        <v>33303</v>
+        <v>44230</v>
       </c>
       <c r="B349">
-        <v>12</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
-        <v>33275</v>
+        <v>44258</v>
       </c>
       <c r="B350">
-        <v>12</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
-        <v>33225</v>
+        <v>44293</v>
       </c>
       <c r="B351">
-        <v>12</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
-        <v>33184</v>
+        <v>44321</v>
       </c>
       <c r="B352">
-        <v>13</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
-        <v>33161</v>
+        <v>44349</v>
       </c>
       <c r="B353">
-        <v>13</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
-        <v>33121</v>
+        <v>44384</v>
       </c>
       <c r="B354">
-        <v>14</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
-        <v>33087</v>
+        <v>44412</v>
       </c>
       <c r="B355">
-        <v>14</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
-        <v>33058</v>
+        <v>44447</v>
       </c>
       <c r="B356">
-        <v>15.25</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
-        <v>33030</v>
+        <v>44475</v>
       </c>
       <c r="B357">
-        <v>15.25</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
-        <v>32995</v>
+        <v>44503</v>
       </c>
       <c r="B358">
-        <v>15.25</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
-        <v>32967</v>
+        <v>44538</v>
       </c>
       <c r="B359">
-        <v>15.25</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
-        <v>32939</v>
+        <v>44594</v>
       </c>
       <c r="B360">
-        <v>16.75</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
-        <v>32919</v>
+        <v>44622</v>
       </c>
       <c r="B361">
-        <v>16.75</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
-        <v>32896</v>
+        <v>44657</v>
       </c>
       <c r="B362">
-        <v>17.25</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B362" xr:uid="{556AA299-82DA-4E8F-A498-0A31FD584209}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B362">
+      <sortCondition ref="A1:A362"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Historical Interest Rate Data/Historical Interest Rate Data - 1990 - 2022.xlsx
+++ b/Historical Interest Rate Data/Historical Interest Rate Data - 1990 - 2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjtur\LearnPython\UWA_Bootcamp_DA\04-GitHub Repositories\project-1\Historical Interest Rate Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FF468E-7048-45FD-B491-FD2F6B806BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEE7BB0-830E-49AD-A0DF-BFE3705F0675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15360" activeTab="1" xr2:uid="{B701FA85-4DAD-4331-8607-0404BEBE9D16}"/>
   </bookViews>
@@ -43,9 +43,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
-  <si>
-    <t>Effective Date</t>
-  </si>
   <si>
     <t>Row Labels</t>
   </si>
@@ -192,6 +189,9 @@
   </si>
   <si>
     <t>Cash Rate Target</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -2719,15 +2719,15 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="5">
         <v>12</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="5">
         <v>1</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="5">
         <v>1</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="5">
         <v>1</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="5">
         <v>1</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="5">
         <v>1</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="5">
         <v>1</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="5">
         <v>1</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="5">
         <v>11</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="5">
         <v>12</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="5">
         <v>11</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="5">
         <v>12</v>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="5">
         <v>11</v>
@@ -2871,7 +2871,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="5">
         <v>11</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="5">
         <v>13</v>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="5">
         <v>11</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="5">
         <v>11</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="5">
         <v>11</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="5">
         <v>11</v>
@@ -2919,7 +2919,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="5">
         <v>11</v>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="5">
         <v>11</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="5">
         <v>11</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="5">
         <v>11</v>
@@ -2951,7 +2951,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="5">
         <v>11</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="5">
         <v>11</v>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="5">
         <v>11</v>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="5">
         <v>11</v>
@@ -2983,7 +2983,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="5">
         <v>11</v>
@@ -2991,7 +2991,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="5">
         <v>11</v>
@@ -2999,7 +2999,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="5">
         <v>11</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="5">
         <v>11</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="5">
         <v>11</v>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="5">
         <v>11</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="5">
         <v>11</v>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="5">
         <v>11</v>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="5">
         <v>11</v>
@@ -3055,7 +3055,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="5">
         <v>11</v>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="5">
         <v>12</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="5">
         <v>11</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="5">
         <v>3</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B49" s="5">
         <v>361</v>
@@ -3106,16 +3106,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
